--- a/aichan/549498072909189212_2021-07-20_18-53-10.xlsx
+++ b/aichan/549498072909189212_2021-07-20_18-53-10.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9445,7 +9445,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -11607,7 +11607,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11745,7 +11745,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -12388,7 +12388,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12680,7 +12680,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12755,7 +12755,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12909,7 +12909,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -13185,7 +13185,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -13611,7 +13611,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14267,7 +14267,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14334,7 +14334,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14409,7 +14409,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14709,7 +14709,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14930,7 +14930,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -15068,7 +15068,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -15660,7 +15660,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -16254,7 +16254,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16325,7 +16325,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16546,7 +16546,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16901,7 +16901,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -17039,7 +17039,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17465,7 +17465,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17678,7 +17678,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -18187,7 +18187,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -18396,7 +18396,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -19107,7 +19107,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -19261,7 +19261,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19696,7 +19696,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -20508,7 +20508,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20575,7 +20575,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20717,7 +20717,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20993,7 +20993,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21060,7 +21060,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -21127,7 +21127,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21412,7 +21412,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21475,7 +21475,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21621,7 +21621,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21692,7 +21692,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -21881,7 +21881,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -22106,7 +22106,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -22398,7 +22398,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22682,7 +22682,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22753,7 +22753,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22970,7 +22970,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23033,7 +23033,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23108,7 +23108,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23860,7 +23860,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24082,7 +24082,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -24287,7 +24287,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -24603,7 +24603,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24899,7 +24899,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -25280,7 +25280,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25418,7 +25418,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -25493,7 +25493,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -27066,7 +27066,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27366,7 +27366,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -27962,7 +27962,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28258,7 +28258,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28562,7 +28562,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28720,7 +28720,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28799,7 +28799,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28878,7 +28878,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28957,7 +28957,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -29797,7 +29797,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -29876,7 +29876,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -29947,7 +29947,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -30251,7 +30251,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -30689,7 +30689,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -30910,7 +30910,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -31060,7 +31060,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -31285,7 +31285,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31360,7 +31360,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31439,7 +31439,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -31573,7 +31573,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -31937,7 +31937,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -32008,7 +32008,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -32083,7 +32083,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -32162,7 +32162,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -32371,7 +32371,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -32665,7 +32665,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -32728,7 +32728,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -32807,7 +32807,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -32879,7 +32879,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -32950,7 +32950,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -33084,7 +33084,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33452,7 +33452,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -33602,7 +33602,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -33681,7 +33681,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -33760,7 +33760,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -34130,7 +34130,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34344,7 +34344,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -34838,7 +34838,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -34901,7 +34901,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -34980,7 +34980,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -35481,7 +35481,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -35840,7 +35840,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -35903,7 +35903,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -36366,7 +36366,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36433,7 +36433,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -36500,7 +36500,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -36879,7 +36879,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -36954,7 +36954,7 @@
         </is>
       </c>
       <c r="I504" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J504" t="inlineStr">
         <is>
@@ -37179,7 +37179,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -37476,7 +37476,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -38065,7 +38065,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -38212,7 +38212,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -38417,7 +38417,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -38496,7 +38496,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -38859,7 +38859,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -39056,7 +39056,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -39131,7 +39131,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -39198,7 +39198,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39340,7 +39340,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -39407,7 +39407,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -39479,7 +39479,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -39546,7 +39546,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -39625,7 +39625,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -39964,7 +39964,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -40039,7 +40039,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -40106,7 +40106,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -40441,7 +40441,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -40571,7 +40571,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -40848,7 +40848,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -40919,7 +40919,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -40982,7 +40982,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -41274,7 +41274,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -41621,7 +41621,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -41755,7 +41755,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -41826,7 +41826,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -42098,7 +42098,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -42240,7 +42240,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -42311,7 +42311,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -42512,7 +42512,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -42657,7 +42657,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -42720,7 +42720,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -43103,7 +43103,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -43251,7 +43251,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -43622,7 +43622,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -44115,7 +44115,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -44178,7 +44178,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -44245,7 +44245,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -44320,7 +44320,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -44543,7 +44543,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -44614,7 +44614,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -44693,7 +44693,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -45453,7 +45453,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -45528,7 +45528,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -45662,7 +45662,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -45741,7 +45741,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -45808,7 +45808,7 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -45879,7 +45879,7 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -46013,7 +46013,7 @@
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -46088,7 +46088,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -46151,7 +46151,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -46288,7 +46288,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -46647,7 +46647,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -46718,7 +46718,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -46860,7 +46860,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -46927,7 +46927,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -47136,7 +47136,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -47274,7 +47274,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -47633,7 +47633,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -47704,7 +47704,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -48059,7 +48059,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -48646,7 +48646,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -48780,7 +48780,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -48924,7 +48924,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -49133,7 +49133,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -49568,7 +49568,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -49796,7 +49796,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">
@@ -49863,7 +49863,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K685" t="inlineStr">
@@ -49930,7 +49930,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -50001,7 +50001,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -50296,7 +50296,7 @@
         </is>
       </c>
       <c r="I691" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="J691" t="inlineStr">
         <is>
@@ -50750,7 +50750,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -50825,7 +50825,7 @@
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K698" t="inlineStr">
@@ -50900,7 +50900,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -51488,7 +51488,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -51701,7 +51701,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
@@ -52150,7 +52150,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -52217,7 +52217,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
@@ -52364,11 +52364,11 @@
         </is>
       </c>
       <c r="I719" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K719" t="inlineStr">
@@ -52510,7 +52510,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K721" t="inlineStr">
@@ -53181,7 +53181,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K730" t="inlineStr">
@@ -53489,7 +53489,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K734" t="inlineStr">
@@ -53568,7 +53568,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K735" t="inlineStr">
@@ -53639,7 +53639,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K736" t="inlineStr">
@@ -53781,7 +53781,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K738" t="inlineStr">
@@ -53852,7 +53852,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -53923,7 +53923,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K740" t="inlineStr">
@@ -54069,7 +54069,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K742" t="inlineStr">
@@ -54148,7 +54148,7 @@
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K743" t="inlineStr">
@@ -54290,7 +54290,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K745" t="inlineStr">
@@ -54357,7 +54357,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
@@ -54523,7 +54523,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K748" t="inlineStr">
@@ -54598,7 +54598,7 @@
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K749" t="inlineStr">
@@ -54740,7 +54740,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -54883,7 +54883,7 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K753" t="inlineStr">
@@ -55172,7 +55172,7 @@
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K757" t="inlineStr">
@@ -55243,7 +55243,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -55314,7 +55314,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -55390,7 +55390,7 @@
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K760" t="inlineStr">
@@ -55600,7 +55600,7 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K763" t="inlineStr">
@@ -55742,7 +55742,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -55881,7 +55881,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
@@ -56027,7 +56027,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K769" t="inlineStr">
@@ -56169,7 +56169,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K771" t="inlineStr">
@@ -56319,7 +56319,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -56390,7 +56390,7 @@
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K774" t="inlineStr">
@@ -56462,7 +56462,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K775" t="inlineStr">
@@ -56604,7 +56604,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K777" t="inlineStr">
@@ -56675,7 +56675,7 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K778" t="inlineStr">
@@ -56880,7 +56880,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -56947,7 +56947,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -57317,7 +57317,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K787" t="inlineStr">
@@ -57684,7 +57684,7 @@
       </c>
       <c r="J792" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K792" t="inlineStr">
@@ -57763,7 +57763,7 @@
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K793" t="inlineStr">
@@ -57826,11 +57826,11 @@
         </is>
       </c>
       <c r="I794" t="n">
-        <v>1387</v>
+        <v>1418</v>
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K794" t="inlineStr">
@@ -58122,7 +58122,7 @@
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K798" t="inlineStr">
@@ -58414,7 +58414,7 @@
       </c>
       <c r="J802" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K802" t="inlineStr">
@@ -58493,7 +58493,7 @@
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K803" t="inlineStr">
@@ -58572,7 +58572,7 @@
       </c>
       <c r="J804" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K804" t="inlineStr">
@@ -58718,7 +58718,7 @@
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K806" t="inlineStr">
@@ -58940,7 +58940,7 @@
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K809" t="inlineStr">
@@ -59157,7 +59157,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K812" t="inlineStr">
@@ -59374,7 +59374,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K815" t="inlineStr">
@@ -59940,7 +59940,7 @@
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K823" t="inlineStr">
@@ -60090,7 +60090,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K825" t="inlineStr">
@@ -60165,7 +60165,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K826" t="inlineStr">
@@ -60240,7 +60240,7 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K827" t="inlineStr">
@@ -60465,7 +60465,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -60540,7 +60540,7 @@
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K831" t="inlineStr">
@@ -60615,7 +60615,7 @@
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K832" t="inlineStr">
@@ -60682,7 +60682,7 @@
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K833" t="inlineStr">
@@ -60745,7 +60745,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K834" t="inlineStr">
@@ -60812,7 +60812,7 @@
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K835" t="inlineStr">
@@ -60879,7 +60879,7 @@
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K836" t="inlineStr">
@@ -61159,7 +61159,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
@@ -61538,7 +61538,7 @@
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K845" t="inlineStr">
@@ -61692,7 +61692,7 @@
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K847" t="inlineStr">
@@ -61980,7 +61980,7 @@
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K851" t="inlineStr">
@@ -62047,7 +62047,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K852" t="inlineStr">
@@ -62114,7 +62114,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K853" t="inlineStr">
@@ -62185,7 +62185,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K854" t="inlineStr">
@@ -62331,7 +62331,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K856" t="inlineStr">
@@ -62402,7 +62402,7 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K857" t="inlineStr">
@@ -62687,7 +62687,7 @@
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K861" t="inlineStr">
@@ -62834,7 +62834,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K863" t="inlineStr">
@@ -62913,7 +62913,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K864" t="inlineStr">
@@ -63143,7 +63143,7 @@
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K867" t="inlineStr">
@@ -63281,7 +63281,7 @@
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K869" t="inlineStr">
@@ -63490,7 +63490,7 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K872" t="inlineStr">
@@ -63924,7 +63924,7 @@
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K878" t="inlineStr">
@@ -64074,7 +64074,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K880" t="inlineStr">
@@ -64445,7 +64445,7 @@
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K885" t="inlineStr">
@@ -64504,11 +64504,11 @@
         </is>
       </c>
       <c r="I886" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
@@ -64668,7 +64668,7 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
@@ -64731,7 +64731,7 @@
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K889" t="inlineStr">
@@ -64810,7 +64810,7 @@
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K890" t="inlineStr">
@@ -64960,7 +64960,7 @@
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K892" t="inlineStr">
@@ -65191,7 +65191,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
@@ -65337,7 +65337,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -65416,7 +65416,7 @@
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K898" t="inlineStr">
@@ -65779,7 +65779,7 @@
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K903" t="inlineStr">
@@ -65917,7 +65917,7 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K905" t="inlineStr">
@@ -65988,7 +65988,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
@@ -66138,7 +66138,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
@@ -66205,7 +66205,7 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K909" t="inlineStr">
@@ -66422,7 +66422,7 @@
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -66493,7 +66493,7 @@
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K913" t="inlineStr">
@@ -66568,7 +66568,7 @@
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
@@ -66722,7 +66722,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
@@ -66789,7 +66789,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K917" t="inlineStr">
@@ -67416,7 +67416,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K926" t="inlineStr">
@@ -67487,7 +67487,7 @@
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
@@ -67558,7 +67558,7 @@
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
@@ -67633,7 +67633,7 @@
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K929" t="inlineStr">
@@ -67775,7 +67775,7 @@
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K931" t="inlineStr">
@@ -67850,7 +67850,7 @@
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K932" t="inlineStr">
@@ -67921,7 +67921,7 @@
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K933" t="inlineStr">
@@ -68063,7 +68063,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K935" t="inlineStr">
@@ -68126,7 +68126,7 @@
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K936" t="inlineStr">
@@ -68353,7 +68353,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K939" t="inlineStr">
@@ -68657,7 +68657,7 @@
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K943" t="inlineStr">
@@ -68799,7 +68799,7 @@
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K945" t="inlineStr">
@@ -68879,7 +68879,7 @@
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K946" t="inlineStr">
@@ -68958,7 +68958,7 @@
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -69384,7 +69384,7 @@
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K953" t="inlineStr">
@@ -69459,7 +69459,7 @@
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K954" t="inlineStr">
@@ -69534,7 +69534,7 @@
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K955" t="inlineStr">
@@ -69601,7 +69601,7 @@
       </c>
       <c r="J956" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K956" t="inlineStr">
@@ -69910,11 +69910,11 @@
         </is>
       </c>
       <c r="I960" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K960" t="inlineStr">
@@ -69993,7 +69993,7 @@
       </c>
       <c r="J961" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K961" t="inlineStr">
@@ -70064,7 +70064,7 @@
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K962" t="inlineStr">
@@ -70214,7 +70214,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K964" t="inlineStr">
@@ -70344,7 +70344,7 @@
       </c>
       <c r="J966" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K966" t="inlineStr">
@@ -70407,7 +70407,7 @@
       </c>
       <c r="J967" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K967" t="inlineStr">
@@ -70758,7 +70758,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K972" t="inlineStr">
@@ -70900,7 +70900,7 @@
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K974" t="inlineStr">
@@ -70977,7 +70977,7 @@
       </c>
       <c r="J975" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K975" t="inlineStr">
@@ -71048,7 +71048,7 @@
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K976" t="inlineStr">
@@ -71119,7 +71119,7 @@
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K977" t="inlineStr">
@@ -71198,7 +71198,7 @@
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K978" t="inlineStr">
@@ -71273,7 +71273,7 @@
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K979" t="inlineStr">
@@ -71348,7 +71348,7 @@
         </is>
       </c>
       <c r="I980" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J980" t="inlineStr">
         <is>
@@ -71431,7 +71431,7 @@
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K981" t="inlineStr">
@@ -71928,7 +71928,7 @@
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K988" t="inlineStr">
@@ -71995,7 +71995,7 @@
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K989" t="inlineStr">
@@ -72062,7 +72062,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K990" t="inlineStr">
@@ -72220,7 +72220,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K992" t="inlineStr">
@@ -72330,11 +72330,11 @@
         </is>
       </c>
       <c r="I993" t="n">
-        <v>1185</v>
+        <v>1209</v>
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K993" t="inlineStr">
@@ -72484,7 +72484,7 @@
       </c>
       <c r="J995" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K995" t="inlineStr">
@@ -72626,7 +72626,7 @@
       </c>
       <c r="J997" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K997" t="inlineStr">
@@ -72772,7 +72772,7 @@
       </c>
       <c r="J999" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K999" t="inlineStr">
@@ -72918,7 +72918,7 @@
       </c>
       <c r="J1001" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1001" t="inlineStr">
@@ -72997,7 +72997,7 @@
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1002" t="inlineStr">
@@ -73151,7 +73151,7 @@
       </c>
       <c r="J1004" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1004" t="inlineStr">
@@ -73226,7 +73226,7 @@
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1005" t="inlineStr">
@@ -73304,7 +73304,7 @@
       </c>
       <c r="J1006" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1006" t="inlineStr">
@@ -73371,7 +73371,7 @@
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1007" t="inlineStr">
@@ -73517,7 +73517,7 @@
       </c>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1009" t="inlineStr">
@@ -73592,7 +73592,7 @@
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1010" t="inlineStr">
@@ -73750,7 +73750,7 @@
       </c>
       <c r="J1012" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1012" t="inlineStr">
@@ -73892,7 +73892,7 @@
       </c>
       <c r="J1014" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1014" t="inlineStr">
@@ -74205,7 +74205,7 @@
       </c>
       <c r="J1018" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1018" t="inlineStr">
@@ -74276,7 +74276,7 @@
       </c>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1019" t="inlineStr">
@@ -74414,7 +74414,7 @@
       </c>
       <c r="J1021" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1021" t="inlineStr">
@@ -74644,11 +74644,11 @@
         </is>
       </c>
       <c r="I1024" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1024" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1024" t="inlineStr">
@@ -74715,7 +74715,7 @@
         </is>
       </c>
       <c r="I1025" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1025" t="inlineStr">
         <is>
@@ -74874,7 +74874,7 @@
         </is>
       </c>
       <c r="I1027" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J1027" t="inlineStr">
         <is>
@@ -74945,7 +74945,7 @@
         </is>
       </c>
       <c r="I1028" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1028" t="inlineStr">
         <is>
@@ -75103,7 +75103,7 @@
       </c>
       <c r="J1030" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1030" t="inlineStr">
@@ -75174,7 +75174,7 @@
         </is>
       </c>
       <c r="I1031" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1031" t="inlineStr">
         <is>
@@ -75249,7 +75249,7 @@
         </is>
       </c>
       <c r="I1032" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1032" t="inlineStr">
         <is>
@@ -75537,7 +75537,7 @@
         </is>
       </c>
       <c r="I1036" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J1036" t="inlineStr">
         <is>
@@ -75612,11 +75612,11 @@
         </is>
       </c>
       <c r="I1037" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1037" t="inlineStr">
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="I1038" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1038" t="inlineStr">
         <is>
@@ -75912,7 +75912,7 @@
         </is>
       </c>
       <c r="I1041" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1041" t="inlineStr">
         <is>
@@ -75987,7 +75987,7 @@
       </c>
       <c r="J1042" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1042" t="inlineStr">
@@ -76066,7 +76066,7 @@
       </c>
       <c r="J1043" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1043" t="inlineStr">
@@ -76129,7 +76129,7 @@
       </c>
       <c r="J1044" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1044" t="inlineStr">
@@ -76575,7 +76575,7 @@
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1050" t="inlineStr">
@@ -76713,7 +76713,7 @@
       </c>
       <c r="J1052" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1052" t="inlineStr">
@@ -76788,7 +76788,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1053" t="inlineStr">
@@ -77152,7 +77152,7 @@
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1058" t="inlineStr">
@@ -77306,7 +77306,7 @@
         </is>
       </c>
       <c r="I1060" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J1060" t="inlineStr">
         <is>
@@ -77385,7 +77385,7 @@
         </is>
       </c>
       <c r="I1061" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="J1061" t="inlineStr">
         <is>
@@ -77468,7 +77468,7 @@
       </c>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1062" t="inlineStr">
@@ -77547,7 +77547,7 @@
       </c>
       <c r="J1063" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1063" t="inlineStr">
@@ -77615,7 +77615,7 @@
         </is>
       </c>
       <c r="I1064" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J1064" t="inlineStr">
         <is>
@@ -77771,11 +77771,11 @@
         </is>
       </c>
       <c r="I1066" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J1066" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1066" t="inlineStr">
@@ -77846,7 +77846,7 @@
         </is>
       </c>
       <c r="I1067" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J1067" t="inlineStr">
         <is>
@@ -77922,11 +77922,11 @@
         </is>
       </c>
       <c r="I1068" t="n">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1068" t="inlineStr">
@@ -78294,7 +78294,7 @@
         </is>
       </c>
       <c r="I1073" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J1073" t="inlineStr">
         <is>
@@ -78587,7 +78587,7 @@
       </c>
       <c r="J1077" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1077" t="inlineStr">
@@ -78725,7 +78725,7 @@
       </c>
       <c r="J1079" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1079" t="inlineStr">
@@ -78794,7 +78794,7 @@
         </is>
       </c>
       <c r="I1080" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J1080" t="inlineStr">
         <is>
@@ -78944,7 +78944,7 @@
       </c>
       <c r="J1082" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1082" t="inlineStr">
@@ -79094,7 +79094,7 @@
       </c>
       <c r="J1084" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1084" t="inlineStr">
@@ -79169,7 +79169,7 @@
         </is>
       </c>
       <c r="I1085" t="n">
-        <v>2271</v>
+        <v>2283</v>
       </c>
       <c r="J1085" t="inlineStr">
         <is>
@@ -79252,7 +79252,7 @@
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1086" t="inlineStr">
@@ -79319,11 +79319,11 @@
         </is>
       </c>
       <c r="I1087" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1087" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1087" t="inlineStr">
@@ -79398,7 +79398,7 @@
       </c>
       <c r="J1088" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1088" t="inlineStr">
@@ -79465,7 +79465,7 @@
       </c>
       <c r="J1089" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1089" t="inlineStr">
@@ -79540,7 +79540,7 @@
       </c>
       <c r="J1090" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1090" t="inlineStr">
@@ -79615,7 +79615,7 @@
       </c>
       <c r="J1091" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1091" t="inlineStr">
@@ -79682,7 +79682,7 @@
       </c>
       <c r="J1092" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1092" t="inlineStr">
@@ -79753,7 +79753,7 @@
       </c>
       <c r="J1093" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1093" t="inlineStr">
@@ -79828,11 +79828,11 @@
         </is>
       </c>
       <c r="I1094" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J1094" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1094" t="inlineStr">
@@ -79982,7 +79982,7 @@
       </c>
       <c r="J1096" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1096" t="inlineStr">
@@ -80057,7 +80057,7 @@
       </c>
       <c r="J1097" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1097" t="inlineStr">
@@ -80120,11 +80120,11 @@
         </is>
       </c>
       <c r="I1098" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1098" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1098" t="inlineStr">
@@ -80195,7 +80195,7 @@
       </c>
       <c r="J1099" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1099" t="inlineStr">
@@ -80274,7 +80274,7 @@
       </c>
       <c r="J1100" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1100" t="inlineStr">
@@ -80341,11 +80341,11 @@
         </is>
       </c>
       <c r="I1101" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J1101" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1101" t="inlineStr">
@@ -80491,7 +80491,7 @@
       </c>
       <c r="J1103" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1103" t="inlineStr">
@@ -80566,7 +80566,7 @@
       </c>
       <c r="J1104" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1104" t="inlineStr">
@@ -80637,7 +80637,7 @@
       </c>
       <c r="J1105" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1105" t="inlineStr">
@@ -80716,7 +80716,7 @@
       </c>
       <c r="J1106" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1106" t="inlineStr">
@@ -81068,7 +81068,7 @@
       </c>
       <c r="J1111" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1111" t="inlineStr">
@@ -81218,7 +81218,7 @@
       </c>
       <c r="J1113" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1113" t="inlineStr">
@@ -81419,7 +81419,7 @@
       </c>
       <c r="J1116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1116" t="inlineStr">
@@ -81940,7 +81940,7 @@
         </is>
       </c>
       <c r="I1123" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1123" t="inlineStr">
         <is>
@@ -82095,7 +82095,7 @@
       </c>
       <c r="J1125" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1125" t="inlineStr">
@@ -82475,7 +82475,7 @@
       </c>
       <c r="J1130" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1130" t="inlineStr">
@@ -82546,7 +82546,7 @@
       </c>
       <c r="J1131" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1131" t="inlineStr">
@@ -82901,7 +82901,7 @@
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1136" t="inlineStr">
@@ -82972,7 +82972,7 @@
       </c>
       <c r="J1137" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1137" t="inlineStr">
@@ -83347,7 +83347,7 @@
         </is>
       </c>
       <c r="I1142" t="n">
-        <v>2202</v>
+        <v>2213</v>
       </c>
       <c r="J1142" t="inlineStr">
         <is>
@@ -83715,7 +83715,7 @@
       </c>
       <c r="J1147" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1147" t="inlineStr">
@@ -83872,7 +83872,7 @@
       </c>
       <c r="J1149" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1149" t="inlineStr">
@@ -83951,7 +83951,7 @@
       </c>
       <c r="J1150" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1150" t="inlineStr">
@@ -84099,7 +84099,7 @@
       </c>
       <c r="J1152" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1152" t="inlineStr">
@@ -84178,7 +84178,7 @@
       </c>
       <c r="J1153" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1153" t="inlineStr">
@@ -84343,7 +84343,7 @@
       </c>
       <c r="J1155" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1155" t="inlineStr">
@@ -84504,7 +84504,7 @@
       </c>
       <c r="J1157" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1157" t="inlineStr">
@@ -84666,7 +84666,7 @@
       </c>
       <c r="J1159" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1159" t="inlineStr">
@@ -84938,7 +84938,7 @@
       </c>
       <c r="J1163" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1163" t="inlineStr">
@@ -85155,7 +85155,7 @@
       </c>
       <c r="J1166" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1166" t="inlineStr">
@@ -85227,7 +85227,7 @@
       </c>
       <c r="J1167" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1167" t="inlineStr">
@@ -85298,7 +85298,7 @@
       </c>
       <c r="J1168" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1168" t="inlineStr">
@@ -85365,7 +85365,7 @@
       </c>
       <c r="J1169" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1169" t="inlineStr">
@@ -85879,7 +85879,7 @@
       </c>
       <c r="J1176" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1176" t="inlineStr">
@@ -86044,7 +86044,7 @@
         </is>
       </c>
       <c r="I1178" t="n">
-        <v>1483</v>
+        <v>1499</v>
       </c>
       <c r="J1178" t="inlineStr">
         <is>
@@ -86190,7 +86190,7 @@
       </c>
       <c r="J1180" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1180" t="inlineStr">
@@ -86270,7 +86270,7 @@
       </c>
       <c r="J1181" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1181" t="inlineStr">
@@ -86649,7 +86649,7 @@
       </c>
       <c r="J1186" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1186" t="inlineStr">
@@ -86943,7 +86943,7 @@
         </is>
       </c>
       <c r="I1190" t="n">
-        <v>1817</v>
+        <v>1823</v>
       </c>
       <c r="J1190" t="inlineStr">
         <is>
@@ -87397,7 +87397,7 @@
       </c>
       <c r="J1196" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1196" t="inlineStr">
@@ -87464,7 +87464,7 @@
       </c>
       <c r="J1197" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1197" t="inlineStr">
@@ -88174,7 +88174,7 @@
       </c>
       <c r="J1207" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1207" t="inlineStr">
@@ -88320,7 +88320,7 @@
       </c>
       <c r="J1209" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1209" t="inlineStr">
@@ -88470,7 +88470,7 @@
       </c>
       <c r="J1211" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1211" t="inlineStr">
@@ -88533,7 +88533,7 @@
       </c>
       <c r="J1212" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1212" t="inlineStr">
